--- a/1_Hardware/components/components.xlsx
+++ b/1_Hardware/components/components.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -619,10 +619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:I11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -924,6 +927,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>